--- a/classfiers/chatty/knn/chatty-knn-results.xlsx
+++ b/classfiers/chatty/knn/chatty-knn-results.xlsx
@@ -470,10 +470,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7499999999999999</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0.9972826086956522</v>
       </c>
     </row>
     <row r="4">
@@ -508,10 +508,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -546,13 +546,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6637554585152837</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9199999999999999</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.6833333333333333</v>
       </c>
       <c r="D7" t="n">
-        <v>0.75</v>
+        <v>0.7914285714285715</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9327510917030567</v>
+        <v>0.9994565217391305</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/chatty/knn/chatty-knn-results.xlsx
+++ b/classfiers/chatty/knn/chatty-knn-results.xlsx
@@ -470,13 +470,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.4</v>
       </c>
       <c r="D2" t="n">
+        <v>0.5714285714285715</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.8</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C3" t="n">
-        <v>0.75</v>
+        <v>0.4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.4444444444444445</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9972826086956522</v>
+        <v>0.6884615384615383</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="D4" t="n">
         <v>0.5</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0.9961352657004831</v>
       </c>
     </row>
     <row r="5">
@@ -546,13 +546,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6</v>
       </c>
       <c r="D6" t="n">
+        <v>0.7499999999999999</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.8</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0.8333333333333333</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6833333333333333</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7914285714285715</v>
+        <v>0.6531746031746032</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9994565217391305</v>
+        <v>0.8569193608324044</v>
       </c>
     </row>
   </sheetData>
